--- a/Bot_config.xlsx
+++ b/Bot_config.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Algos\git\binance-spot-bot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7247892C-AFDD-4B9C-9BD1-F5268F0DFB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="34560" windowHeight="18600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Validity" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Validity" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,76 +28,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
-    <t xml:space="preserve">symbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeframe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highest close periods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lowest close Periods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTCUSDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMT</t>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>timeframe</t>
+  </si>
+  <si>
+    <t>order_type</t>
+  </si>
+  <si>
+    <t>order_size</t>
+  </si>
+  <si>
+    <t>Highest close periods</t>
+  </si>
+  <si>
+    <t>Lowest close Periods</t>
+  </si>
+  <si>
+    <t>BTCUSDT</t>
+  </si>
+  <si>
+    <t>USDT</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>LMT</t>
   </si>
   <si>
     <t xml:space="preserve">BTC </t>
   </si>
   <si>
-    <t xml:space="preserve">Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currently owned position size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open positions limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo trading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMA_filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMA_timeframe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">END OF CONFIGURATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot  scans the environment of symbols using the timeframe specified by owner (15min, 1hr, D, W). When Buy Criteria is met, bot must open a position of the symbol equivalent to the selected USD amount. When Exit criteria is met, bot closes the currently open position.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy Criteria</t>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>Currently owned position size</t>
+  </si>
+  <si>
+    <t>Open positions limit</t>
+  </si>
+  <si>
+    <t>Demo trading</t>
+  </si>
+  <si>
+    <t>EMA_filter</t>
+  </si>
+  <si>
+    <t>EMA_timeframe</t>
+  </si>
+  <si>
+    <t>END OF CONFIGURATION</t>
+  </si>
+  <si>
+    <t>Bot  scans the environment of symbols using the timeframe specified by owner (15min, 1hr, D, W). When Buy Criteria is met, bot must open a position of the symbol equivalent to the selected USD amount. When Exit criteria is met, bot closes the currently open position.</t>
+  </si>
+  <si>
+    <t>Buy Criteria</t>
   </si>
   <si>
     <r>
@@ -107,14 +112,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*symbol*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*symbol*</t>
     </r>
     <r>
       <rPr>
@@ -128,14 +133,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*Highest close periods*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*Highest close periods*</t>
     </r>
     <r>
       <rPr>
@@ -161,14 +166,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_size*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_size*</t>
     </r>
     <r>
       <rPr>
@@ -182,14 +187,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*symbol*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*symbol*</t>
     </r>
     <r>
       <rPr>
@@ -215,14 +220,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type*</t>
     </r>
     <r>
       <rPr>
@@ -236,7 +241,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -257,14 +262,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*currency*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*currency*</t>
     </r>
     <r>
       <rPr>
@@ -290,24 +295,24 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type=LMT*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, order must remain active until manually closed by owner</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type=LMT*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, order must remain active until manually closed by owner</t>
     </r>
   </si>
   <si>
@@ -323,14 +328,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type=MKT*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type=MKT*</t>
     </r>
     <r>
       <rPr>
@@ -344,14 +349,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_size*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_size*</t>
     </r>
     <r>
       <rPr>
@@ -365,7 +370,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Exit Criteria</t>
+    <t>Exit Criteria</t>
   </si>
   <si>
     <r>
@@ -380,14 +385,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*symbol*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*symbol*</t>
     </r>
     <r>
       <rPr>
@@ -401,14 +406,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*Lowest close periods*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*Lowest close periods*</t>
     </r>
     <r>
       <rPr>
@@ -434,14 +439,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type*</t>
     </r>
     <r>
       <rPr>
@@ -455,7 +460,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -472,7 +477,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">position</t>
+      <t>position</t>
     </r>
   </si>
   <si>
@@ -488,24 +493,24 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type=LMT*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, order must remain active until manually closed by owner</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type=LMT*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, order must remain active until manually closed by owner</t>
     </r>
   </si>
   <si>
@@ -521,14 +526,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type=MKT*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type=MKT*</t>
     </r>
     <r>
       <rPr>
@@ -542,14 +547,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*symbol*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*symbol*</t>
     </r>
     <r>
       <rPr>
@@ -563,91 +568,74 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Open positions limit:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner must be able to select the number of active open positions that the bot will be allowed to run / track for exits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If Close &gt; 13 Daily EMA then proceed with BUY execution, otherwise wait.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1M</t>
+    <t>Open positions limit:</t>
+  </si>
+  <si>
+    <t>Owner must be able to select the number of active open positions that the bot will be allowed to run / track for exits.</t>
+  </si>
+  <si>
+    <t>If Close &gt; 13 Daily EMA then proceed with BUY execution, otherwise wait.</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>MKT</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>1w</t>
+  </si>
+  <si>
+    <t>1M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="16"/>
@@ -657,7 +645,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -665,7 +653,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -673,7 +661,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -681,7 +669,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -722,7 +710,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -730,129 +718,77 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -911,60 +847,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -996,7 +948,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1020,7 +972,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1080,419 +1032,426 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.43359375" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="9.14"/>
+    <col min="1" max="1" width="20.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="56" style="9" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="9" customWidth="1"/>
+    <col min="11" max="1025" width="9.109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="9">
         <v>100</v>
       </c>
-      <c r="G2" s="1" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+      <c r="H3" s="9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="14">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="15"/>
-    </row>
-    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A32:F32"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B5" type="none">
+  <dataValidations count="1">
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D3 B8" type="list">
-      <formula1>Validity!$D$2:$D$16</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E3" type="list">
-      <formula1>Validity!$E$2:$E$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>Validity!$D$2:$D$16</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>D2:D3 B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>Validity!$E$2:$E$3</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>E2:E3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.43359375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.71"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1527,108 +1486,103 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="21" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="J2" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="21" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="J3" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="0" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="0" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="0" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="0" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="0" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="0" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Bot_config.xlsx
+++ b/Bot_config.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Algos\git\binance-spot-bot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7247892C-AFDD-4B9C-9BD1-F5268F0DFB40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="34560" windowHeight="18600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Validity" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Validity" sheetId="2" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -28,76 +23,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
-    <t>symbol</t>
-  </si>
-  <si>
-    <t>currency</t>
-  </si>
-  <si>
-    <t>direction</t>
-  </si>
-  <si>
-    <t>timeframe</t>
-  </si>
-  <si>
-    <t>order_type</t>
-  </si>
-  <si>
-    <t>order_size</t>
-  </si>
-  <si>
-    <t>Highest close periods</t>
-  </si>
-  <si>
-    <t>Lowest close Periods</t>
-  </si>
-  <si>
-    <t>BTCUSDT</t>
-  </si>
-  <si>
-    <t>USDT</t>
-  </si>
-  <si>
-    <t>BUY</t>
-  </si>
-  <si>
-    <t>1m</t>
-  </si>
-  <si>
-    <t>LMT</t>
+    <t xml:space="preserve">symbol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">currency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeframe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">order_size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Highest close periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowest close Periods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BTCUSDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USDT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BUY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LMT</t>
   </si>
   <si>
     <t xml:space="preserve">BTC </t>
   </si>
   <si>
-    <t>Position</t>
-  </si>
-  <si>
-    <t>SELL</t>
-  </si>
-  <si>
-    <t>Currently owned position size</t>
-  </si>
-  <si>
-    <t>Open positions limit</t>
-  </si>
-  <si>
-    <t>Demo trading</t>
-  </si>
-  <si>
-    <t>EMA_filter</t>
-  </si>
-  <si>
-    <t>EMA_timeframe</t>
-  </si>
-  <si>
-    <t>END OF CONFIGURATION</t>
-  </si>
-  <si>
-    <t>Bot  scans the environment of symbols using the timeframe specified by owner (15min, 1hr, D, W). When Buy Criteria is met, bot must open a position of the symbol equivalent to the selected USD amount. When Exit criteria is met, bot closes the currently open position.</t>
-  </si>
-  <si>
-    <t>Buy Criteria</t>
+    <t xml:space="preserve">Position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Currently owned position size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open positions limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Demo trading</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMA_filter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMA_timeframe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">END OF CONFIGURATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bot  scans the environment of symbols using the timeframe specified by owner (15min, 1hr, D, W). When Buy Criteria is met, bot must open a position of the symbol equivalent to the selected USD amount. When Exit criteria is met, bot closes the currently open position.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buy Criteria</t>
   </si>
   <si>
     <r>
@@ -112,14 +107,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>*symbol*</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*symbol*</t>
     </r>
     <r>
       <rPr>
@@ -133,14 +128,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>*Highest close periods*</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*Highest close periods*</t>
     </r>
     <r>
       <rPr>
@@ -166,14 +161,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>*order_size*</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*order_size*</t>
     </r>
     <r>
       <rPr>
@@ -187,14 +182,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>*symbol*</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*symbol*</t>
     </r>
     <r>
       <rPr>
@@ -220,14 +215,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>*order_type*</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*order_type*</t>
     </r>
     <r>
       <rPr>
@@ -241,7 +236,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -262,14 +257,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>*currency*</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*currency*</t>
     </r>
     <r>
       <rPr>
@@ -295,24 +290,24 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>*order_type=LMT*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>, order must remain active until manually closed by owner</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*order_type=LMT*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, order must remain active until manually closed by owner</t>
     </r>
   </si>
   <si>
@@ -328,14 +323,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>*order_type=MKT*</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*order_type=MKT*</t>
     </r>
     <r>
       <rPr>
@@ -349,14 +344,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>*order_size*</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*order_size*</t>
     </r>
     <r>
       <rPr>
@@ -370,7 +365,7 @@
     </r>
   </si>
   <si>
-    <t>Exit Criteria</t>
+    <t xml:space="preserve">Exit Criteria</t>
   </si>
   <si>
     <r>
@@ -385,14 +380,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>*symbol*</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*symbol*</t>
     </r>
     <r>
       <rPr>
@@ -406,14 +401,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>*Lowest close periods*</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*Lowest close periods*</t>
     </r>
     <r>
       <rPr>
@@ -439,14 +434,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>*order_type*</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*order_type*</t>
     </r>
     <r>
       <rPr>
@@ -460,7 +455,7 @@
     </r>
     <r>
       <rPr>
-        <b/>
+        <b val="true"/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -477,7 +472,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t>position</t>
+      <t xml:space="preserve">position</t>
     </r>
   </si>
   <si>
@@ -493,24 +488,24 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>*order_type=LMT*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>, order must remain active until manually closed by owner</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*order_type=LMT*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">, order must remain active until manually closed by owner</t>
     </r>
   </si>
   <si>
@@ -526,14 +521,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>*order_type=MKT*</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*order_type=MKT*</t>
     </r>
     <r>
       <rPr>
@@ -547,14 +542,14 @@
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t>*symbol*</t>
+        <b val="true"/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">*symbol*</t>
     </r>
     <r>
       <rPr>
@@ -568,74 +563,91 @@
     </r>
   </si>
   <si>
-    <t>Open positions limit:</t>
-  </si>
-  <si>
-    <t>Owner must be able to select the number of active open positions that the bot will be allowed to run / track for exits.</t>
-  </si>
-  <si>
-    <t>If Close &gt; 13 Daily EMA then proceed with BUY execution, otherwise wait.</t>
-  </si>
-  <si>
-    <t>3m</t>
-  </si>
-  <si>
-    <t>MKT</t>
-  </si>
-  <si>
-    <t>5m</t>
-  </si>
-  <si>
-    <t>15m</t>
-  </si>
-  <si>
-    <t>30m</t>
-  </si>
-  <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>4h</t>
-  </si>
-  <si>
-    <t>6h</t>
-  </si>
-  <si>
-    <t>8h</t>
-  </si>
-  <si>
-    <t>12h</t>
-  </si>
-  <si>
-    <t>1d</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>1w</t>
-  </si>
-  <si>
-    <t>1M</t>
+    <t xml:space="preserve">Open positions limit:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Owner must be able to select the number of active open positions that the bot will be allowed to run / track for exits.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If Close &gt; 13 Daily EMA then proceed with BUY execution, otherwise wait.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MKT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12h</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="166" formatCode="General"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="16"/>
@@ -645,7 +657,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -653,7 +665,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -661,7 +673,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -669,7 +681,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -710,7 +722,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -718,77 +730,129 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+  <cellXfs count="22">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -847,76 +911,60 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="44546a"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="e7e6e6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4472c4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="ed7d31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="a5a5a5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="ffc000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="5b9bd5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="70ad47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0563c1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="954f72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -948,7 +996,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -972,7 +1020,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1032,426 +1080,419 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="56" style="9" customWidth="1"/>
-    <col min="7" max="7" width="31.44140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="9" customWidth="1"/>
-    <col min="11" max="1025" width="9.109375" style="9" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="9.11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="1" t="n">
         <v>100</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="1" t="n">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+    <row r="5" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5" s="6" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="10" t="s">
+    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+      <c r="B6" s="7" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="6" t="n">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+    <row r="12" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+    </row>
+    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+    </row>
+    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+    </row>
+    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+    </row>
+    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+    </row>
+    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+    </row>
+    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="B22" s="14"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+    </row>
+    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+    </row>
+    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="12"/>
+      <c r="H24" s="10"/>
+    </row>
+    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+    </row>
+    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="B29" s="15"/>
+    </row>
+    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
+    </row>
+    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="B32" s="16"/>
+      <c r="C32" s="16"/>
+      <c r="D32" s="16"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A24:G24"/>
     <mergeCell ref="A25:F25"/>
     <mergeCell ref="A26:F26"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A32:F32"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="3">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B5" type="none">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D3 B8" type="list">
+      <formula1>Validity!$D$2:$D$16</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E3" type="list">
+      <formula1>Validity!$E$2:$E$3</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
   </dataValidations>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
-          <x14:formula1>
-            <xm:f>Validity!$D$2:$D$16</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>D2:D3 B8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
-          <x14:formula1>
-            <xm:f>Validity!$E$2:$E$3</xm:f>
-          </x14:formula1>
-          <x14:formula2>
-            <xm:f>0</xm:f>
-          </x14:formula2>
-          <xm:sqref>E2:E3</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.109375" customWidth="1"/>
-    <col min="2" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="1025" width="8.6640625" customWidth="1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.56"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1486,103 +1527,108 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C2" t="s">
+    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="J2" t="b">
-        <f>TRUE()</f>
+      <c r="J2" s="21" t="b">
+        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="J3" t="b">
-        <f>FALSE()</f>
+      <c r="J3" s="21" t="b">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D4" t="s">
+    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D4" s="0" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
+    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D5" s="0" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
+    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D6" s="0" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
+    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D7" s="0" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
+    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D8" s="0" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
+    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D9" s="0" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
+    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D10" s="0" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
+    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D11" s="0" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
+    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D12" s="0" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
+    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D13" s="0" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
+    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D14" s="0" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
+    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D15" s="0" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
+    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="D16" s="0" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
--- a/Bot_config.xlsx
+++ b/Bot_config.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Algos\git\binance-spot-bot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242F19DA-D9EB-4DB6-B705-3A1477D31C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Validity" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Validity" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,76 +28,76 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
   <si>
-    <t xml:space="preserve">symbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeframe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highest close periods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lowest close Periods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTCUSDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMT</t>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>timeframe</t>
+  </si>
+  <si>
+    <t>order_type</t>
+  </si>
+  <si>
+    <t>order_size</t>
+  </si>
+  <si>
+    <t>Highest close periods</t>
+  </si>
+  <si>
+    <t>Lowest close Periods</t>
+  </si>
+  <si>
+    <t>BTCUSDT</t>
+  </si>
+  <si>
+    <t>USDT</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>LMT</t>
   </si>
   <si>
     <t xml:space="preserve">BTC </t>
   </si>
   <si>
-    <t xml:space="preserve">Position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Currently owned position size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open positions limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo trading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMA_filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMA_timeframe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">END OF CONFIGURATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot  scans the environment of symbols using the timeframe specified by owner (15min, 1hr, D, W). When Buy Criteria is met, bot must open a position of the symbol equivalent to the selected USD amount. When Exit criteria is met, bot closes the currently open position.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy Criteria</t>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>Currently owned position size</t>
+  </si>
+  <si>
+    <t>Open positions limit</t>
+  </si>
+  <si>
+    <t>Demo trading</t>
+  </si>
+  <si>
+    <t>EMA_filter</t>
+  </si>
+  <si>
+    <t>EMA_timeframe</t>
+  </si>
+  <si>
+    <t>END OF CONFIGURATION</t>
+  </si>
+  <si>
+    <t>Bot  scans the environment of symbols using the timeframe specified by owner (15min, 1hr, D, W). When Buy Criteria is met, bot must open a position of the symbol equivalent to the selected USD amount. When Exit criteria is met, bot closes the currently open position.</t>
+  </si>
+  <si>
+    <t>Buy Criteria</t>
   </si>
   <si>
     <r>
@@ -107,14 +112,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*symbol*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*symbol*</t>
     </r>
     <r>
       <rPr>
@@ -128,14 +133,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*Highest close periods*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*Highest close periods*</t>
     </r>
     <r>
       <rPr>
@@ -161,14 +166,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_size*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_size*</t>
     </r>
     <r>
       <rPr>
@@ -182,14 +187,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*symbol*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*symbol*</t>
     </r>
     <r>
       <rPr>
@@ -215,14 +220,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type*</t>
     </r>
     <r>
       <rPr>
@@ -236,7 +241,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -257,14 +262,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*currency*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*currency*</t>
     </r>
     <r>
       <rPr>
@@ -290,24 +295,24 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type=LMT*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, order must remain active until manually closed by owner</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type=LMT*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, order must remain active until manually closed by owner</t>
     </r>
   </si>
   <si>
@@ -323,14 +328,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type=MKT*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type=MKT*</t>
     </r>
     <r>
       <rPr>
@@ -344,14 +349,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_size*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_size*</t>
     </r>
     <r>
       <rPr>
@@ -365,7 +370,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Exit Criteria</t>
+    <t>Exit Criteria</t>
   </si>
   <si>
     <r>
@@ -380,14 +385,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*symbol*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*symbol*</t>
     </r>
     <r>
       <rPr>
@@ -401,14 +406,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*Lowest close periods*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*Lowest close periods*</t>
     </r>
     <r>
       <rPr>
@@ -434,14 +439,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type*</t>
     </r>
     <r>
       <rPr>
@@ -455,7 +460,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -472,7 +477,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">position</t>
+      <t>position</t>
     </r>
   </si>
   <si>
@@ -488,24 +493,24 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type=LMT*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, order must remain active until manually closed by owner</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type=LMT*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, order must remain active until manually closed by owner</t>
     </r>
   </si>
   <si>
@@ -521,14 +526,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type=MKT*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type=MKT*</t>
     </r>
     <r>
       <rPr>
@@ -542,14 +547,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*symbol*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*symbol*</t>
     </r>
     <r>
       <rPr>
@@ -563,91 +568,74 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Open positions limit:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner must be able to select the number of active open positions that the bot will be allowed to run / track for exits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If Close &gt; 13 Daily EMA then proceed with BUY execution, otherwise wait.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1M</t>
+    <t>Open positions limit:</t>
+  </si>
+  <si>
+    <t>Owner must be able to select the number of active open positions that the bot will be allowed to run / track for exits.</t>
+  </si>
+  <si>
+    <t>If Close &gt; 13 Daily EMA then proceed with BUY execution, otherwise wait.</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>MKT</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>1w</t>
+  </si>
+  <si>
+    <t>1M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="16"/>
@@ -657,7 +645,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -665,7 +653,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -673,7 +661,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -681,7 +669,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -722,7 +710,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -730,129 +718,77 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -911,60 +847,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -996,7 +948,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1020,7 +972,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1080,419 +1032,426 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AMK32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D8" activeCellId="0" sqref="D8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="21" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="31.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="9.11"/>
+    <col min="1" max="1" width="20.33203125" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="56" style="9" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="9" customWidth="1"/>
+    <col min="11" max="1025" width="9.109375" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="9">
         <v>100</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H3" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="7" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+      <c r="B6" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="14">
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="14" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>21</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="107.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="29" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="15"/>
-    </row>
-    <row r="30" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="32" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A32:F32"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B5" type="none">
+  <dataValidations count="1">
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D3 B8" type="list">
-      <formula1>Validity!$D$2:$D$16</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E3" type="list">
-      <formula1>Validity!$E$2:$E$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+          <x14:formula1>
+            <xm:f>Validity!$D$2:$D$16</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>D2:D3 B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+          <x14:formula1>
+            <xm:f>Validity!$E$2:$E$3</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>E2:E3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4453125" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="0" width="9.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="20.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="0" width="8.67"/>
+    <col min="1" max="1" width="8.109375" customWidth="1"/>
+    <col min="2" max="3" width="9.44140625" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="21.33203125" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" customWidth="1"/>
+    <col min="11" max="11" width="10.6640625" customWidth="1"/>
+    <col min="12" max="1025" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1527,108 +1486,103 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C2" s="0" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="E2" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="21" t="b">
-        <f aca="false">TRUE()</f>
+      <c r="J2" t="b">
+        <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="0" t="s">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="D3" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="E3" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="21" t="b">
-        <f aca="false">FALSE()</f>
+      <c r="J3" t="b">
+        <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D4" s="0" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D5" s="0" t="s">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D6" s="0" t="s">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D7" s="0" t="s">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D8" s="0" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D9" s="0" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D10" s="0" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D11" s="0" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D12" s="0" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D13" s="0" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D14" s="0" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D15" s="0" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="D16" s="0" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D16" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/Bot_config.xlsx
+++ b/Bot_config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Algos\git\binance-spot-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242F19DA-D9EB-4DB6-B705-3A1477D31C0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37D9CC7-8FB9-4C21-8684-2DC97613343F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
   <si>
     <t>symbol</t>
   </si>
@@ -620,6 +620,12 @@
   </si>
   <si>
     <t>1M</t>
+  </si>
+  <si>
+    <t>ETHUSDT</t>
+  </si>
+  <si>
+    <t>ETH</t>
   </si>
 </sst>
 </file>
@@ -723,65 +729,65 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1044,357 +1050,403 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK32"/>
+  <dimension ref="A1:AMK34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="9" customWidth="1"/>
-    <col min="2" max="2" width="16" style="9" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="9" customWidth="1"/>
-    <col min="6" max="6" width="56" style="9" customWidth="1"/>
-    <col min="7" max="7" width="31.44140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="9" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="9" customWidth="1"/>
-    <col min="11" max="1025" width="9.109375" style="9" customWidth="1"/>
+    <col min="1" max="1" width="20.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.6640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="56" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.44140625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.5546875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="3" customWidth="1"/>
+    <col min="11" max="1025" width="9.109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="3">
         <v>100</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="9">
+      <c r="H3" s="3">
         <v>100</v>
       </c>
     </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3">
+        <v>100</v>
+      </c>
+      <c r="G4" s="3">
+        <v>100</v>
+      </c>
+    </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B7" s="7">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="10" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="15" t="b">
+      <c r="B8" s="8" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10" t="s">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B9" s="7">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B10" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="B12" s="18"/>
+    </row>
+    <row r="14" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="16"/>
-      <c r="H13" s="16"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="19"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="16"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="16"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="5" t="s">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="16"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="16"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="16"/>
-      <c r="B20" s="16"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="16"/>
-      <c r="B21" s="16"/>
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="14"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="B22" s="3"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
+      <c r="B24" s="17"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
+      <c r="B25" s="14"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="16"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
+      <c r="B26" s="14"/>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="H25" s="16"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
+      <c r="B27" s="14"/>
+      <c r="C27" s="14"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+      <c r="B28" s="14"/>
+      <c r="C28" s="14"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="5" t="s">
+      <c r="B31" s="15"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="14"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="14"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
+      <c r="B34" s="13"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:F12"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:F15"/>
-    <mergeCell ref="A16:F16"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A34:F34"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:F32"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1411,7 +1463,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D3 B8</xm:sqref>
+          <xm:sqref>D2:D5 B10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
           <x14:formula1>
@@ -1420,7 +1472,7 @@
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E3</xm:sqref>
+          <xm:sqref>E2:E5</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1452,37 +1504,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="12" t="s">
         <v>19</v>
       </c>
     </row>

--- a/Bot_config.xlsx
+++ b/Bot_config.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dropbox\Algos\git\binance-spot-bot\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konstantin\Desktop\pythonProjects\binance-spot-bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37D9CC7-8FB9-4C21-8684-2DC97613343F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="25416" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="46290" windowHeight="25410" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Validity" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
     <t>symbol</t>
   </si>
@@ -55,9 +54,6 @@
     <t>BTCUSDT</t>
   </si>
   <si>
-    <t>USDT</t>
-  </si>
-  <si>
     <t>BUY</t>
   </si>
   <si>
@@ -67,18 +63,12 @@
     <t>LMT</t>
   </si>
   <si>
-    <t xml:space="preserve">BTC </t>
-  </si>
-  <si>
     <t>Position</t>
   </si>
   <si>
     <t>SELL</t>
   </si>
   <si>
-    <t>Currently owned position size</t>
-  </si>
-  <si>
     <t>Open positions limit</t>
   </si>
   <si>
@@ -623,15 +613,12 @@
   </si>
   <si>
     <t>ETHUSDT</t>
-  </si>
-  <si>
-    <t>ETH</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
@@ -766,28 +753,28 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1049,29 +1036,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="21" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.33203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.28515625" style="3" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="15.6640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="3" customWidth="1"/>
     <col min="6" max="6" width="56" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31.44140625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="19.6640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="13.5546875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="3" customWidth="1"/>
-    <col min="11" max="1025" width="9.109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="31.42578125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="3" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="3" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="3" customWidth="1"/>
+    <col min="11" max="1025" width="9.140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1097,197 +1084,207 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
       </c>
       <c r="F2" s="3">
         <v>100</v>
       </c>
-      <c r="G2" s="3">
+      <c r="G2" s="3"/>
+      <c r="H2" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
-      </c>
+      <c r="F3" s="3">
+        <v>100</v>
+      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
+    <row r="5" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="1:8" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="8" t="b">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="7">
+        <v>20</v>
+      </c>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="3">
-        <v>100</v>
-      </c>
-      <c r="G4" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A8" s="4" t="s">
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="10" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="12" spans="1:8" customFormat="1" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="7">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="18"/>
-    </row>
-    <row r="14" spans="1:8" ht="107.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="19"/>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
+    <row r="15" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
+    <row r="16" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+    <row r="17" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="17"/>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+    <row r="18" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="16"/>
       <c r="C19" s="16"/>
@@ -1297,33 +1294,31 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="14"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="14"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+    <row r="20" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="14"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
+    <row r="21" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
+    <row r="22" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22" s="18"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
@@ -1331,122 +1326,111 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
+    <row r="23" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="17" t="s">
+    <row r="24" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25" s="14" t="s">
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="14" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="29" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="14"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="14" t="s">
+      <c r="B29" s="20"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+    </row>
+    <row r="30" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="14"/>
-      <c r="F27" s="14"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="14" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="16"/>
+      <c r="D30" s="16"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+    </row>
+    <row r="32" spans="1:8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="14"/>
-      <c r="F28" s="14"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="15"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="14"/>
-      <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="14"/>
-      <c r="F32" s="14"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A34" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="13"/>
-      <c r="F34" s="13"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="19"/>
+      <c r="E32" s="19"/>
+      <c r="F32" s="19"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:F30"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A18:F18"/>
     <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A34:F34"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="A27:F27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:F12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A16:F16"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -1456,23 +1440,23 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000001000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validity!$D$2:$D$16</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>D2:D5 B10</xm:sqref>
+          <xm:sqref>B8 D2:D3</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000002000000}">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Validity!$E$2:$E$3</xm:f>
           </x14:formula1>
           <x14:formula2>
             <xm:f>0</xm:f>
           </x14:formula2>
-          <xm:sqref>E2:E5</xm:sqref>
+          <xm:sqref>E2:E3</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1481,29 +1465,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K16"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.109375" customWidth="1"/>
-    <col min="2" max="3" width="9.44140625" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" customWidth="1"/>
-    <col min="7" max="7" width="21.88671875" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" customWidth="1"/>
-    <col min="10" max="10" width="14.5546875" customWidth="1"/>
-    <col min="11" max="11" width="10.6640625" customWidth="1"/>
-    <col min="12" max="1025" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="1025" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1529,108 +1513,108 @@
         <v>7</v>
       </c>
       <c r="I1" s="12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
       </c>
       <c r="J2" t="b">
         <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J3" t="b">
         <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D5" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D6" t="s">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D7" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D8" t="s">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D9" t="s">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D10" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D16" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/Bot_config.xlsx
+++ b/Bot_config.xlsx
@@ -1094,7 +1094,7 @@
   <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.43359375" defaultRowHeight="20.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1196,9 +1196,8 @@
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7" t="n">
-        <f aca="false">TRUE()</f>
-        <v>1</v>
+      <c r="B6" s="7" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/Bot_config.xlsx
+++ b/Bot_config.xlsx
@@ -1,17 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\konstantin\Desktop\pythonProjects\binance-spot-bot\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="Validity" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Validity" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -23,70 +27,70 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="50">
   <si>
-    <t xml:space="preserve">symbol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">currency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timeframe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">order_size</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highest close periods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lowest close Periods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ETHUSDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BUY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LMT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BTCUSDT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open positions limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Demo trading</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMA_filter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMA_timeframe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">END OF CONFIGURATION</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bot  scans the environment of symbols using the timeframe specified by owner (15min, 1hr, D, W). When Buy Criteria is met, bot must open a position of the symbol equivalent to the selected USD amount. When Exit criteria is met, bot closes the currently open position.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Buy Criteria</t>
+    <t>symbol</t>
+  </si>
+  <si>
+    <t>currency</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>timeframe</t>
+  </si>
+  <si>
+    <t>order_type</t>
+  </si>
+  <si>
+    <t>order_size</t>
+  </si>
+  <si>
+    <t>Highest close periods</t>
+  </si>
+  <si>
+    <t>Lowest close Periods</t>
+  </si>
+  <si>
+    <t>ETHUSDT</t>
+  </si>
+  <si>
+    <t>USDT</t>
+  </si>
+  <si>
+    <t>BUY</t>
+  </si>
+  <si>
+    <t>1m</t>
+  </si>
+  <si>
+    <t>LMT</t>
+  </si>
+  <si>
+    <t>BTCUSDT</t>
+  </si>
+  <si>
+    <t>Open positions limit</t>
+  </si>
+  <si>
+    <t>Demo trading</t>
+  </si>
+  <si>
+    <t>EMA_filter</t>
+  </si>
+  <si>
+    <t>EMA_timeframe</t>
+  </si>
+  <si>
+    <t>1d</t>
+  </si>
+  <si>
+    <t>END OF CONFIGURATION</t>
+  </si>
+  <si>
+    <t>Bot  scans the environment of symbols using the timeframe specified by owner (15min, 1hr, D, W). When Buy Criteria is met, bot must open a position of the symbol equivalent to the selected USD amount. When Exit criteria is met, bot closes the currently open position.</t>
+  </si>
+  <si>
+    <t>Buy Criteria</t>
   </si>
   <si>
     <r>
@@ -101,14 +105,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*symbol*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*symbol*</t>
     </r>
     <r>
       <rPr>
@@ -122,14 +126,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*Highest close periods*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*Highest close periods*</t>
     </r>
     <r>
       <rPr>
@@ -155,14 +159,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_size*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_size*</t>
     </r>
     <r>
       <rPr>
@@ -176,14 +180,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*symbol*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*symbol*</t>
     </r>
     <r>
       <rPr>
@@ -209,14 +213,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type*</t>
     </r>
     <r>
       <rPr>
@@ -230,7 +234,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -251,14 +255,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*currency*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*currency*</t>
     </r>
     <r>
       <rPr>
@@ -284,24 +288,24 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type=LMT*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, order must remain active until manually closed by owner</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type=LMT*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, order must remain active until manually closed by owner</t>
     </r>
   </si>
   <si>
@@ -317,14 +321,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type=MKT*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type=MKT*</t>
     </r>
     <r>
       <rPr>
@@ -338,14 +342,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_size*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_size*</t>
     </r>
     <r>
       <rPr>
@@ -359,7 +363,7 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Exit Criteria</t>
+    <t>Exit Criteria</t>
   </si>
   <si>
     <r>
@@ -374,14 +378,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*symbol*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*symbol*</t>
     </r>
     <r>
       <rPr>
@@ -395,14 +399,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*Lowest close periods*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*Lowest close periods*</t>
     </r>
     <r>
       <rPr>
@@ -428,14 +432,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type*</t>
     </r>
     <r>
       <rPr>
@@ -449,7 +453,7 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
+        <b/>
         <sz val="16"/>
         <color rgb="FF000000"/>
         <rFont val="Calibri"/>
@@ -466,7 +470,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">position</t>
+      <t>position</t>
     </r>
   </si>
   <si>
@@ -482,24 +486,24 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type=LMT*</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">, order must remain active until manually closed by owner</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type=LMT*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>, order must remain active until manually closed by owner</t>
     </r>
   </si>
   <si>
@@ -515,14 +519,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*order_type=MKT*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*order_type=MKT*</t>
     </r>
     <r>
       <rPr>
@@ -536,14 +540,14 @@
     </r>
     <r>
       <rPr>
-        <b val="true"/>
-        <sz val="16"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">*symbol*</t>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t>*symbol*</t>
     </r>
     <r>
       <rPr>
@@ -557,91 +561,74 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Open positions limit:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Owner must be able to select the number of active open positions that the bot will be allowed to run / track for exits.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If Close &gt; 13 Daily EMA then proceed with BUY execution, otherwise wait.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SELL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MKT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">15m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">30m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12h</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1M</t>
+    <t>Open positions limit:</t>
+  </si>
+  <si>
+    <t>Owner must be able to select the number of active open positions that the bot will be allowed to run / track for exits.</t>
+  </si>
+  <si>
+    <t>If Close &gt; 13 Daily EMA then proceed with BUY execution, otherwise wait.</t>
+  </si>
+  <si>
+    <t>SELL</t>
+  </si>
+  <si>
+    <t>3m</t>
+  </si>
+  <si>
+    <t>MKT</t>
+  </si>
+  <si>
+    <t>5m</t>
+  </si>
+  <si>
+    <t>15m</t>
+  </si>
+  <si>
+    <t>30m</t>
+  </si>
+  <si>
+    <t>1h</t>
+  </si>
+  <si>
+    <t>2h</t>
+  </si>
+  <si>
+    <t>4h</t>
+  </si>
+  <si>
+    <t>6h</t>
+  </si>
+  <si>
+    <t>8h</t>
+  </si>
+  <si>
+    <t>12h</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>1w</t>
+  </si>
+  <si>
+    <t>1M</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="166" formatCode="General"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="16"/>
@@ -651,7 +638,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -659,7 +646,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="16"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -667,7 +654,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -675,7 +662,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
@@ -716,7 +703,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -724,133 +711,79 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -909,60 +842,76 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -994,7 +943,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -1018,7 +967,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -1078,419 +1027,426 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.43359375" defaultRowHeight="20.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="21.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="26.46"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="13.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="11.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="1" width="9.15"/>
+    <col min="1" max="1" width="11.85546875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="16" style="9" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="15.7109375" style="9" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" style="9" customWidth="1"/>
+    <col min="6" max="6" width="28" style="9" customWidth="1"/>
+    <col min="7" max="7" width="26.42578125" style="9" customWidth="1"/>
+    <col min="8" max="8" width="26" style="9" customWidth="1"/>
+    <col min="9" max="9" width="13.5703125" style="9" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" style="9" customWidth="1"/>
+    <col min="11" max="1025" width="9.140625" style="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="12" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="9">
         <v>100</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="9">
         <v>100</v>
       </c>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="9">
         <v>100</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="6" t="n">
+      <c r="B5" s="14">
         <v>2</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="7" t="b">
+      <c r="B6" s="15" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="6" t="n">
+      <c r="B7" s="14">
         <v>40</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="8"/>
     </row>
-    <row r="12" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="9" t="s">
+    <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-    </row>
-    <row r="13" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-    </row>
-    <row r="14" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="s">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-    </row>
-    <row r="15" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="12" t="s">
+      <c r="B14" s="6"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="12" t="s">
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-    </row>
-    <row r="17" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="13" t="s">
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-    </row>
-    <row r="18" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="12" t="s">
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-    </row>
-    <row r="19" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="12" t="s">
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-    </row>
-    <row r="20" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="10"/>
-    </row>
-    <row r="21" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="10"/>
-    </row>
-    <row r="22" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="s">
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-    </row>
-    <row r="23" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12" t="s">
+      <c r="B22" s="3"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="10"/>
-      <c r="H23" s="10"/>
-    </row>
-    <row r="24" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12" t="s">
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="12"/>
-      <c r="H24" s="10"/>
-    </row>
-    <row r="25" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="12" t="s">
+      <c r="B24" s="5"/>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="16"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="12" t="s">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="H25" s="16"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-    </row>
-    <row r="29" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="15" t="s">
+      <c r="B26" s="5"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="15"/>
-    </row>
-    <row r="30" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="12" t="s">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="12"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-    </row>
-    <row r="32" customFormat="false" ht="20.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="16" t="s">
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B32" s="16"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="16"/>
-      <c r="E32" s="16"/>
-      <c r="F32" s="16"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="A25:F25"/>
+    <mergeCell ref="A26:F26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A19:F19"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A23:F23"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A12:F12"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:F15"/>
     <mergeCell ref="A16:F16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="A25:F25"/>
-    <mergeCell ref="A26:F26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A32:F32"/>
   </mergeCells>
-  <dataValidations count="3">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="greaterThanOrEqual" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="B5" type="none">
+  <dataValidations count="1">
+    <dataValidation operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5">
       <formula1>0</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="D2:D3 B8" type="list">
-      <formula1>Validity!$D$2:$D$16</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="E2:E3" type="list">
-      <formula1>Validity!$E$2:$E$3</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Validity!$D$2:$D$16</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>D2:D3 B8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Validity!$E$2:$E$3</xm:f>
+          </x14:formula1>
+          <x14:formula2>
+            <xm:f>0</xm:f>
+          </x14:formula2>
+          <xm:sqref>E2:E3</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:K16"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMK16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J4" activeCellId="0" sqref="J4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.43359375" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="17" width="8.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="17" width="9.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="17" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="17" width="11.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="17" width="10.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="17" width="21.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="17" width="21.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="17" width="20.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="17" width="14.53"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="17" width="10.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="12" style="17" width="8.69"/>
+    <col min="1" max="1" width="8.140625" style="17" customWidth="1"/>
+    <col min="2" max="3" width="9.42578125" style="17" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="17" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="21.85546875" style="17" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" style="17" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" style="17" customWidth="1"/>
+    <col min="10" max="10" width="14.5703125" style="17" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" style="17" customWidth="1"/>
+    <col min="12" max="1025" width="8.7109375" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
@@ -1525,7 +1481,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C2" s="17" t="s">
         <v>10</v>
       </c>
@@ -1536,11 +1492,11 @@
         <v>12</v>
       </c>
       <c r="J2" s="22" t="b">
-        <f aca="false">TRUE()</f>
+        <f>TRUE()</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C3" s="17" t="s">
         <v>35</v>
       </c>
@@ -1551,82 +1507,77 @@
         <v>37</v>
       </c>
       <c r="J3" s="22" t="b">
-        <f aca="false">FALSE()</f>
+        <f>FALSE()</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D4" s="17" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D5" s="17" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D6" s="17" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D7" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D8" s="17" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="17" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="17" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="17" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="17" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="17" t="s">
         <v>49</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>